--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -47,12 +47,225 @@
     <t>Кавитация</t>
   </si>
   <si>
+    <t>Внешний авторитет клапана</t>
+  </si>
+  <si>
+    <t>Дата расчета:</t>
+  </si>
+  <si>
+    <t>Объект:</t>
+  </si>
+  <si>
+    <t>Место установки:</t>
+  </si>
+  <si>
+    <t>Схема присоединения:</t>
+  </si>
+  <si>
+    <t>Наличие регулятора перепада давления:</t>
+  </si>
+  <si>
+    <t>Тип клапана:</t>
+  </si>
+  <si>
+    <t>Входные данные</t>
+  </si>
+  <si>
+    <t>Рабочая среда:</t>
+  </si>
+  <si>
+    <t>Gкл=</t>
+  </si>
+  <si>
+    <t>Напряжение питания:</t>
+  </si>
+  <si>
+    <t>Управление:</t>
+  </si>
+  <si>
+    <t>Наличие датчика положения 4-20 mA:</t>
+  </si>
+  <si>
+    <t>Наличие возвратного механизма:</t>
+  </si>
+  <si>
+    <t>Результат расчета регулирующего клапана</t>
+  </si>
+  <si>
+    <t>Максимальная рабочая температура:</t>
+  </si>
+  <si>
+    <t>Максимальное рабочее давление:</t>
+  </si>
+  <si>
+    <t>Рекомендуемая скорость управления для электроприводов TW500, TW1001, TW3000 - 2 сек/мм (30 мм/мин).</t>
+  </si>
+  <si>
+    <t>Тепловая мощность:</t>
+  </si>
+  <si>
+    <t>Q=</t>
+  </si>
+  <si>
+    <t>Параметры теплосети</t>
+  </si>
+  <si>
+    <t>Параметры системы</t>
+  </si>
+  <si>
+    <t>зима</t>
+  </si>
+  <si>
+    <t>лето</t>
+  </si>
+  <si>
+    <t>отопления</t>
+  </si>
+  <si>
+    <t>вентиляции</t>
+  </si>
+  <si>
+    <t>Температура подающего теплоносителя</t>
+  </si>
+  <si>
+    <t>Температура обратного теплоносителя</t>
+  </si>
+  <si>
+    <t>T'1=</t>
+  </si>
+  <si>
+    <t>T1=</t>
+  </si>
+  <si>
+    <t>T'2=</t>
+  </si>
+  <si>
+    <t>T2=</t>
+  </si>
+  <si>
+    <t>T21=</t>
+  </si>
+  <si>
+    <t>T11=</t>
+  </si>
+  <si>
+    <t>T22=</t>
+  </si>
+  <si>
+    <t>T12=</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>Длина L=</t>
+  </si>
+  <si>
+    <t>Высота H1=</t>
+  </si>
+  <si>
+    <t>Высота H=</t>
+  </si>
+  <si>
+    <t>Потери давления:</t>
+  </si>
+  <si>
+    <t>в системе ΔPсист=</t>
+  </si>
+  <si>
+    <t>в теплообменнике ΔPто=</t>
+  </si>
+  <si>
+    <t>Расчетные потери давления на клапане ΔPкл=</t>
+  </si>
+  <si>
+    <t>Давление перед клапаном P'=</t>
+  </si>
+  <si>
+    <t>Давление пара после клапана P'2=</t>
+  </si>
+  <si>
+    <t>Давление пара перед клапаном P'1=</t>
+  </si>
+  <si>
+    <t>Напряжение питания</t>
+  </si>
+  <si>
+    <t>Усилие привода, Н</t>
+  </si>
+  <si>
+    <t>Скорость, сек/мм (мм/мин)</t>
+  </si>
+  <si>
+    <t>Управление</t>
+  </si>
+  <si>
+    <t>3-х поз.</t>
+  </si>
+  <si>
+    <t>230 VAC</t>
+  </si>
+  <si>
+    <t>Потребл. мощность, W</t>
+  </si>
+  <si>
+    <t>Наличие датчика положения
+4-20 mA</t>
+  </si>
+  <si>
+    <t>Область применения:</t>
+  </si>
+  <si>
+    <t>Марка клапана:</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Обозначение электропривода</t>
+  </si>
+  <si>
+    <t>Масса с электроприводом m=</t>
+  </si>
+  <si>
+    <t>24 VAC/VDC</t>
+  </si>
+  <si>
+    <t>Макс. температура среды через клапан Т1=</t>
+  </si>
+  <si>
+    <t>Температура пара через клапан Т1=</t>
+  </si>
+  <si>
+    <t>Максимальный расход через клапан:</t>
+  </si>
+  <si>
+    <t>°С</t>
+  </si>
+  <si>
+    <t>Версия:</t>
+  </si>
+  <si>
+    <t>Оптимальная скорость в выходном сечении клапана:  2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
+  </si>
+  <si>
+    <t>Обозначение электро- привода</t>
+  </si>
+  <si>
+    <t>Макс. перепад давления, преодолева- емый приводом, бар, не более</t>
+  </si>
+  <si>
+    <t>Рекомендуемая скорость управления для электроприводов TSL-1600, TSL-2200, TSL-3000:
+- системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-100 - 6 сек/мм (10 мм/мин);
+- система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-100 - 2,4 сек/мм (25 мм/мин).</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Фактические потери давления на полностью открытом клапане при заданном расходе </t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="6.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -62,7 +275,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="6.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -73,15 +286,12 @@
     </r>
   </si>
   <si>
-    <t>Внешний авторитет клапана</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Предельно допустимый перепад давлений на клапане </t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="6.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -91,233 +301,28 @@
     </r>
   </si>
   <si>
-    <t>Дата расчета:</t>
-  </si>
-  <si>
-    <t>Объект:</t>
-  </si>
-  <si>
-    <t>Место установки:</t>
-  </si>
-  <si>
-    <t>Схема присоединения:</t>
-  </si>
-  <si>
-    <t>Наличие регулятора перепада давления:</t>
-  </si>
-  <si>
-    <t>Тип клапана:</t>
-  </si>
-  <si>
-    <t>Входные данные</t>
-  </si>
-  <si>
-    <t>Рабочая среда:</t>
-  </si>
-  <si>
-    <t>Gкл=</t>
-  </si>
-  <si>
-    <t>Напряжение питания:</t>
-  </si>
-  <si>
-    <t>Управление:</t>
-  </si>
-  <si>
-    <t>Наличие датчика положения 4-20 mA:</t>
-  </si>
-  <si>
-    <t>Наличие возвратного механизма:</t>
-  </si>
-  <si>
-    <t>Результат расчета регулирующего клапана</t>
-  </si>
-  <si>
-    <t>Максимальная рабочая температура:</t>
-  </si>
-  <si>
-    <t>Максимальное рабочее давление:</t>
-  </si>
-  <si>
-    <t>Рекомендуемая скорость управления для электроприводов TW500, TW1001, TW3000 - 2 сек/мм (30 мм/мин).</t>
-  </si>
-  <si>
-    <t>Рекомендуемая скорость управления для электроприводов TSL-1600, TSL-2200:
-- системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-100 - 6 сек/мм (10 мм/мин);
-- система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-100 - 2,4 сек/мм (25 мм/мин).</t>
-  </si>
-  <si>
-    <t>Тепловая мощность:</t>
-  </si>
-  <si>
-    <t>Q=</t>
-  </si>
-  <si>
-    <t>Параметры теплосети</t>
-  </si>
-  <si>
-    <t>Параметры системы</t>
-  </si>
-  <si>
-    <t>зима</t>
-  </si>
-  <si>
-    <t>лето</t>
-  </si>
-  <si>
-    <t>отопления</t>
-  </si>
-  <si>
-    <t>вентиляции</t>
-  </si>
-  <si>
-    <t>Температура подающего теплоносителя</t>
-  </si>
-  <si>
-    <t>Температура обратного теплоносителя</t>
-  </si>
-  <si>
-    <t>T'1=</t>
-  </si>
-  <si>
-    <t>T1=</t>
-  </si>
-  <si>
-    <t>T'2=</t>
-  </si>
-  <si>
-    <t>T2=</t>
-  </si>
-  <si>
-    <t>T21=</t>
-  </si>
-  <si>
-    <t>T11=</t>
-  </si>
-  <si>
-    <t>T22=</t>
-  </si>
-  <si>
-    <t>T12=</t>
-  </si>
-  <si>
-    <t>мм</t>
-  </si>
-  <si>
-    <t>Длина L=</t>
-  </si>
-  <si>
-    <t>Высота H1=</t>
-  </si>
-  <si>
-    <t>Высота H=</t>
-  </si>
-  <si>
-    <t>Потери давления:</t>
-  </si>
-  <si>
-    <t>в системе ΔPсист=</t>
-  </si>
-  <si>
-    <t>в теплообменнике ΔPто=</t>
-  </si>
-  <si>
-    <t>Расчетные потери давления на клапане ΔPкл=</t>
-  </si>
-  <si>
-    <t>Давление перед клапаном P'=</t>
-  </si>
-  <si>
-    <t>Давление пара после клапана P'2=</t>
-  </si>
-  <si>
-    <t>Давление пара перед клапаном P'1=</t>
-  </si>
-  <si>
-    <t>Характеристики выбранного электропривода</t>
-  </si>
-  <si>
-    <t>Требуемые характеристики электропривода</t>
-  </si>
-  <si>
-    <t>Напряжение питания</t>
-  </si>
-  <si>
-    <t>Усилие привода, Н</t>
-  </si>
-  <si>
-    <t>Скорость, сек/мм (мм/мин)</t>
-  </si>
-  <si>
-    <t>Управление</t>
-  </si>
-  <si>
-    <t>3-х поз.</t>
-  </si>
-  <si>
-    <t>230 VAC</t>
-  </si>
-  <si>
-    <t>4-20 mA (2-10 V)</t>
-  </si>
-  <si>
-    <t>Потребл. мощность, W</t>
-  </si>
-  <si>
-    <t>Наличие датчика положения
-4-20 mA</t>
-  </si>
-  <si>
-    <t>Наличие возврат-ного меха-низма</t>
-  </si>
-  <si>
-    <t>Область применения:</t>
-  </si>
-  <si>
-    <t>Марка клапана:</t>
-  </si>
-  <si>
-    <t>кг</t>
-  </si>
-  <si>
-    <t>Обозначение электропривода</t>
-  </si>
-  <si>
-    <t>Обозначение электро-привода</t>
-  </si>
-  <si>
-    <t>Масса с электроприводом m=</t>
-  </si>
-  <si>
-    <t>24 VAC/VDC</t>
-  </si>
-  <si>
-    <t>Макс. температура среды через клапан Т1=</t>
-  </si>
-  <si>
-    <t>Температура пара через клапан Т1=</t>
-  </si>
-  <si>
-    <t>Максимальный расход через клапан:</t>
-  </si>
-  <si>
-    <t>°С</t>
-  </si>
-  <si>
-    <t>Версия:</t>
-  </si>
-  <si>
-    <t>Оптимальная скорость в выходном сечении клапана:  2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
-  </si>
-  <si>
-    <t>Максимально допустимый перепад давл. на выбранном клапане, преодолеваемый приводом, бар, не более</t>
+    <t xml:space="preserve">Характеристики выбранного электропривода </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требуемые характеристики электропривода </t>
+  </si>
+  <si>
+    <t>4-20 mA  
+(2-10 V)</t>
+  </si>
+  <si>
+    <t>Наличие 
+возврат- 
+ного 
+меха- 
+низма</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,13 +338,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -410,6 +408,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,137 +506,143 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -957,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,12 +1004,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="21"/>
+      <c r="H2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1005,19 +1024,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1032,21 +1051,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1061,21 +1080,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
+      <c r="A5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1090,21 +1109,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="A6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1119,12 +1138,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1146,19 +1165,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
+      <c r="A8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1173,21 +1192,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="22"/>
+      <c r="A9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="24"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1204,19 +1223,19 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="7"/>
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
@@ -1233,19 +1252,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="7"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
@@ -1262,24 +1281,24 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
+      <c r="F12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="18" t="s">
-        <v>79</v>
+      <c r="K12" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1295,21 +1314,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1324,28 +1343,28 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="18" t="s">
-        <v>79</v>
+      <c r="A14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="5"/>
@@ -1361,26 +1380,26 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="18" t="s">
-        <v>79</v>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="5"/>
@@ -1396,28 +1415,28 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="18" t="s">
-        <v>79</v>
+      <c r="C16" s="24"/>
+      <c r="D16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="5"/>
@@ -1433,26 +1452,26 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="18" t="s">
-        <v>79</v>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
@@ -1468,20 +1487,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="31"/>
+      <c r="A18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1497,20 +1516,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="A19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1526,19 +1545,19 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="A20" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1553,21 +1572,21 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="36"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1582,21 +1601,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="36"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1611,12 +1630,12 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="A23" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1638,19 +1657,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="A24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1665,19 +1684,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="A25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1717,38 +1736,38 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="11" t="s">
+      <c r="I27" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>73</v>
+      <c r="K27" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1764,17 +1783,17 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1789,19 +1808,19 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="A29" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1816,34 +1835,34 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42" t="s">
+      <c r="K30" s="45" t="s">
         <v>60</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>66</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1859,25 +1878,25 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1892,17 +1911,17 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1917,19 +1936,19 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
+      <c r="A33" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1944,19 +1963,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
+      <c r="A34" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1971,19 +1990,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
+      <c r="A35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2000,9 +2019,9 @@
     <row r="36" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="3"/>
       <c r="G36" s="8"/>
       <c r="H36" s="3"/>
@@ -2023,16 +2042,16 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="D37" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="16" t="s">
-        <v>46</v>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="D37" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2051,16 +2070,16 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="D38" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="16" t="s">
-        <v>46</v>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="D38" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2079,16 +2098,16 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="D39" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="16" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="D39" s="24" t="s">
         <v>46</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2107,16 +2126,16 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="D40" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="16" t="s">
-        <v>71</v>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="D40" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -2135,8 +2154,8 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="3"/>
@@ -2160,8 +2179,8 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2180,8 +2199,8 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2200,8 +2219,8 @@
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="3"/>
       <c r="I44" s="3"/>
       <c r="L44" s="2"/>
@@ -2218,8 +2237,8 @@
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2238,8 +2257,8 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2247,10 +2266,10 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K46" s="20"/>
+      <c r="J46" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="19"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -2991,46 +3010,34 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A37:B46"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
@@ -3047,32 +3054,44 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A37:B46"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="7.874015748031496E-2" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -561,88 +561,88 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -977,7 +977,7 @@
   <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1027,16 +1027,16 @@
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1051,21 +1051,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1080,21 +1080,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1109,21 +1109,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1138,12 +1138,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1169,15 +1169,15 @@
         <v>15</v>
       </c>
       <c r="B8" s="24"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1205,8 +1205,8 @@
       <c r="G9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1234,8 +1234,8 @@
       <c r="G10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="7"/>
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
@@ -1263,8 +1263,8 @@
       <c r="G11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="7"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
@@ -1294,8 +1294,8 @@
       <c r="G12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="7"/>
       <c r="K12" s="17" t="s">
         <v>71</v>
@@ -1315,20 +1315,20 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="39" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="39" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1354,7 +1354,7 @@
         <v>36</v>
       </c>
       <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="17" t="s">
         <v>71</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="17" t="s">
         <v>71</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="17" t="s">
         <v>71</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>37</v>
       </c>
       <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="17" t="s">
         <v>71</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="17" t="s">
         <v>71</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="17" t="s">
         <v>71</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="17" t="s">
         <v>71</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>42</v>
       </c>
       <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="17" t="s">
         <v>71</v>
       </c>
@@ -1490,17 +1490,17 @@
       <c r="A18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1528,8 +1528,8 @@
         <v>16</v>
       </c>
       <c r="H19" s="24"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1545,19 +1545,19 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1575,18 +1575,18 @@
       <c r="A21" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="30"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1604,18 +1604,18 @@
       <c r="A22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="30"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1630,12 +1630,12 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1663,13 +1663,13 @@
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1690,13 +1690,13 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1736,37 +1736,37 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="44" t="s">
+      <c r="K27" s="20" t="s">
         <v>74</v>
       </c>
       <c r="L27" s="2"/>
@@ -1808,19 +1808,19 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1835,33 +1835,33 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="35" t="s">
         <v>60</v>
       </c>
       <c r="L30" s="2"/>
@@ -1878,25 +1878,25 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="44" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="44" t="s">
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1936,19 +1936,19 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1963,19 +1963,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1990,19 +1990,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2042,8 +2042,8 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
       <c r="D37" s="24" t="s">
         <v>44</v>
       </c>
@@ -2070,8 +2070,8 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
       <c r="D38" s="24" t="s">
         <v>45</v>
       </c>
@@ -2098,8 +2098,8 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
       <c r="D39" s="24" t="s">
         <v>46</v>
       </c>
@@ -2126,13 +2126,13 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="D40" s="43" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="D40" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="16"/>
       <c r="H40" s="15" t="s">
         <v>64</v>
@@ -2154,8 +2154,8 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="3"/>
@@ -2179,8 +2179,8 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2199,8 +2199,8 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2219,8 +2219,8 @@
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="3"/>
       <c r="I44" s="3"/>
       <c r="L44" s="2"/>
@@ -2237,8 +2237,8 @@
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2257,8 +2257,8 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3010,6 +3010,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A20:K20"/>
     <mergeCell ref="A37:B46"/>
@@ -3026,72 +3092,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="7.874015748031496E-2" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CSharp\TeploSila_RDT\TeploSila_RDT\TeploSila_2\bin\Debug\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CSharp\TeploSila_RDT\TeploSila_RDT\TeploSila_2\bin\Release\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="12060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -123,12 +123,6 @@
   </si>
   <si>
     <t>вентиляции</t>
-  </si>
-  <si>
-    <t>Температура подающего теплоносителя</t>
-  </si>
-  <si>
-    <t>Температура обратного теплоносителя</t>
   </si>
   <si>
     <t>T'1=</t>
@@ -317,12 +311,18 @@
 меха- 
 низма</t>
   </si>
+  <si>
+    <t>Температура теплоносителя в подающем трубопроводе</t>
+  </si>
+  <si>
+    <t>Температура теплоносителя в обратном трубопроводе</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +424,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -567,83 +576,83 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,12 +1013,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1027,16 +1036,16 @@
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1051,21 +1060,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1080,21 +1089,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
+      <c r="A5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1109,21 +1118,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1138,12 +1147,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1165,19 +1174,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1192,21 +1201,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="24"/>
+      <c r="A9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="28"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1223,19 +1232,19 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="7"/>
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
@@ -1252,19 +1261,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="7"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
@@ -1281,24 +1290,24 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="7"/>
       <c r="F12" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
+      <c r="G12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="7"/>
       <c r="K12" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1314,21 +1323,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1343,28 +1352,28 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="5"/>
@@ -1380,26 +1389,26 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="33"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="5"/>
@@ -1415,28 +1424,28 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="33"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="5"/>
@@ -1452,26 +1461,26 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
@@ -1487,20 +1496,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="25" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1516,20 +1525,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24" t="s">
+      <c r="A19" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1545,19 +1554,19 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="A20" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1572,21 +1581,21 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="25" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="40"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1601,21 +1610,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="25" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="40"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1630,12 +1639,12 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1657,19 +1666,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1684,19 +1693,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1746,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>7</v>
@@ -1761,13 +1770,13 @@
         <v>5</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1808,19 +1817,19 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="A29" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1835,34 +1844,34 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="35" t="s">
+      <c r="A30" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35" t="s">
+      <c r="G30" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30" s="35" t="s">
-        <v>60</v>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1878,25 +1887,25 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+        <v>65</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1936,19 +1945,19 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
+      <c r="A33" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1963,19 +1972,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
+      <c r="A34" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1990,19 +1999,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2042,16 +2051,16 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="D37" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="D37" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="16"/>
       <c r="H37" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2070,16 +2079,16 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="D38" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="D38" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="16"/>
       <c r="H38" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2098,16 +2107,16 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="D39" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="D39" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="16"/>
       <c r="H39" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2126,16 +2135,16 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="D40" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="D40" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="16"/>
       <c r="H40" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -2154,8 +2163,8 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="3"/>
@@ -2179,8 +2188,8 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2199,8 +2208,8 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2219,8 +2228,8 @@
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="3"/>
       <c r="I44" s="3"/>
       <c r="L44" s="2"/>
@@ -2237,8 +2246,8 @@
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2257,8 +2266,8 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2267,7 +2276,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="2"/>
@@ -3010,18 +3019,59 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A37:B46"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A29:K29"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -3038,60 +3088,19 @@
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A37:B46"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="7.874015748031496E-2" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CSharp\TeploSila_RDT\TeploSila_RDT\TeploSila_2\bin\Release\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -45,213 +46,6 @@
   </si>
   <si>
     <t>Кавитация</t>
-  </si>
-  <si>
-    <t>Внешний авторитет клапана</t>
-  </si>
-  <si>
-    <t>Дата расчета:</t>
-  </si>
-  <si>
-    <t>Объект:</t>
-  </si>
-  <si>
-    <t>Место установки:</t>
-  </si>
-  <si>
-    <t>Схема присоединения:</t>
-  </si>
-  <si>
-    <t>Наличие регулятора перепада давления:</t>
-  </si>
-  <si>
-    <t>Тип клапана:</t>
-  </si>
-  <si>
-    <t>Входные данные</t>
-  </si>
-  <si>
-    <t>Рабочая среда:</t>
-  </si>
-  <si>
-    <t>Gкл=</t>
-  </si>
-  <si>
-    <t>Напряжение питания:</t>
-  </si>
-  <si>
-    <t>Управление:</t>
-  </si>
-  <si>
-    <t>Наличие датчика положения 4-20 mA:</t>
-  </si>
-  <si>
-    <t>Наличие возвратного механизма:</t>
-  </si>
-  <si>
-    <t>Результат расчета регулирующего клапана</t>
-  </si>
-  <si>
-    <t>Максимальная рабочая температура:</t>
-  </si>
-  <si>
-    <t>Максимальное рабочее давление:</t>
-  </si>
-  <si>
-    <t>Рекомендуемая скорость управления для электроприводов TW500, TW1001, TW3000 - 2 сек/мм (30 мм/мин).</t>
-  </si>
-  <si>
-    <t>Тепловая мощность:</t>
-  </si>
-  <si>
-    <t>Q=</t>
-  </si>
-  <si>
-    <t>Параметры теплосети</t>
-  </si>
-  <si>
-    <t>Параметры системы</t>
-  </si>
-  <si>
-    <t>зима</t>
-  </si>
-  <si>
-    <t>лето</t>
-  </si>
-  <si>
-    <t>отопления</t>
-  </si>
-  <si>
-    <t>вентиляции</t>
-  </si>
-  <si>
-    <t>T'1=</t>
-  </si>
-  <si>
-    <t>T1=</t>
-  </si>
-  <si>
-    <t>T'2=</t>
-  </si>
-  <si>
-    <t>T2=</t>
-  </si>
-  <si>
-    <t>T21=</t>
-  </si>
-  <si>
-    <t>T11=</t>
-  </si>
-  <si>
-    <t>T22=</t>
-  </si>
-  <si>
-    <t>T12=</t>
-  </si>
-  <si>
-    <t>мм</t>
-  </si>
-  <si>
-    <t>Длина L=</t>
-  </si>
-  <si>
-    <t>Высота H1=</t>
-  </si>
-  <si>
-    <t>Высота H=</t>
-  </si>
-  <si>
-    <t>Потери давления:</t>
-  </si>
-  <si>
-    <t>в системе ΔPсист=</t>
-  </si>
-  <si>
-    <t>в теплообменнике ΔPто=</t>
-  </si>
-  <si>
-    <t>Расчетные потери давления на клапане ΔPкл=</t>
-  </si>
-  <si>
-    <t>Давление перед клапаном P'=</t>
-  </si>
-  <si>
-    <t>Давление пара после клапана P'2=</t>
-  </si>
-  <si>
-    <t>Давление пара перед клапаном P'1=</t>
-  </si>
-  <si>
-    <t>Напряжение питания</t>
-  </si>
-  <si>
-    <t>Усилие привода, Н</t>
-  </si>
-  <si>
-    <t>Скорость, сек/мм (мм/мин)</t>
-  </si>
-  <si>
-    <t>Управление</t>
-  </si>
-  <si>
-    <t>3-х поз.</t>
-  </si>
-  <si>
-    <t>230 VAC</t>
-  </si>
-  <si>
-    <t>Потребл. мощность, W</t>
-  </si>
-  <si>
-    <t>Наличие датчика положения
-4-20 mA</t>
-  </si>
-  <si>
-    <t>Область применения:</t>
-  </si>
-  <si>
-    <t>Марка клапана:</t>
-  </si>
-  <si>
-    <t>кг</t>
-  </si>
-  <si>
-    <t>Обозначение электропривода</t>
-  </si>
-  <si>
-    <t>Масса с электроприводом m=</t>
-  </si>
-  <si>
-    <t>24 VAC/VDC</t>
-  </si>
-  <si>
-    <t>Макс. температура среды через клапан Т1=</t>
-  </si>
-  <si>
-    <t>Температура пара через клапан Т1=</t>
-  </si>
-  <si>
-    <t>Максимальный расход через клапан:</t>
-  </si>
-  <si>
-    <t>°С</t>
-  </si>
-  <si>
-    <t>Версия:</t>
-  </si>
-  <si>
-    <t>Оптимальная скорость в выходном сечении клапана:  2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
-  </si>
-  <si>
-    <t>Обозначение электро- привода</t>
-  </si>
-  <si>
-    <t>Макс. перепад давления, преодолева- емый приводом, бар, не более</t>
-  </si>
-  <si>
-    <t>Рекомендуемая скорость управления для электроприводов TSL-1600, TSL-2200, TSL-3000:
-- системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-100 - 6 сек/мм (10 мм/мин);
-- система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-100 - 2,4 сек/мм (25 мм/мин).</t>
   </si>
   <si>
     <r>
@@ -259,7 +53,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="6.5"/>
+        <sz val="7"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -269,7 +63,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="6.5"/>
+        <sz val="7"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -280,12 +74,15 @@
     </r>
   </si>
   <si>
+    <t>Внешний авторитет клапана</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Предельно допустимый перепад давлений на клапане </t>
     </r>
     <r>
       <rPr>
-        <sz val="6.5"/>
+        <sz val="7"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -295,34 +92,249 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Характеристики выбранного электропривода </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Требуемые характеристики электропривода </t>
-  </si>
-  <si>
-    <t>4-20 mA  
+    <t>Дата расчета:</t>
+  </si>
+  <si>
+    <t>Объект:</t>
+  </si>
+  <si>
+    <t>Место установки:</t>
+  </si>
+  <si>
+    <t>Схема присоединения:</t>
+  </si>
+  <si>
+    <t>Наличие регулятора перепада давления:</t>
+  </si>
+  <si>
+    <t>Тип клапана:</t>
+  </si>
+  <si>
+    <t>Входные данные</t>
+  </si>
+  <si>
+    <t>Рабочая среда:</t>
+  </si>
+  <si>
+    <t>Gкл=</t>
+  </si>
+  <si>
+    <t>Напряжение питания:</t>
+  </si>
+  <si>
+    <t>Управление:</t>
+  </si>
+  <si>
+    <t>Наличие датчика положения 4-20 mA:</t>
+  </si>
+  <si>
+    <t>Наличие возвратного механизма:</t>
+  </si>
+  <si>
+    <t>Результат расчета регулирующего клапана</t>
+  </si>
+  <si>
+    <t>Максимальная рабочая температура:</t>
+  </si>
+  <si>
+    <t>Максимальное рабочее давление:</t>
+  </si>
+  <si>
+    <t>Рекомендуемая скорость управления для электроприводов TW500, TW1001, TW3000 - 2 сек/мм (30 мм/мин).</t>
+  </si>
+  <si>
+    <t>Тепловая мощность:</t>
+  </si>
+  <si>
+    <t>Q=</t>
+  </si>
+  <si>
+    <t>Параметры теплосети</t>
+  </si>
+  <si>
+    <t>Параметры системы</t>
+  </si>
+  <si>
+    <t>зима</t>
+  </si>
+  <si>
+    <t>лето</t>
+  </si>
+  <si>
+    <t>отопления</t>
+  </si>
+  <si>
+    <t>вентиляции</t>
+  </si>
+  <si>
+    <t>T'1=</t>
+  </si>
+  <si>
+    <t>T1=</t>
+  </si>
+  <si>
+    <t>T'2=</t>
+  </si>
+  <si>
+    <t>T2=</t>
+  </si>
+  <si>
+    <t>T21=</t>
+  </si>
+  <si>
+    <t>T11=</t>
+  </si>
+  <si>
+    <t>T22=</t>
+  </si>
+  <si>
+    <t>T12=</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>о</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>С</t>
+    </r>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>Длина L=</t>
+  </si>
+  <si>
+    <t>Высота H1=</t>
+  </si>
+  <si>
+    <t>Высота H=</t>
+  </si>
+  <si>
+    <t>Потери давления:</t>
+  </si>
+  <si>
+    <t>в системе ΔPсист=</t>
+  </si>
+  <si>
+    <t>в теплообменнике ΔPто=</t>
+  </si>
+  <si>
+    <t>Расчетные потери давления на клапане ΔPкл=</t>
+  </si>
+  <si>
+    <t>Давление перед клапаном P'=</t>
+  </si>
+  <si>
+    <t>Характеристики выбранного электропривода</t>
+  </si>
+  <si>
+    <t>Требуемые характеристики электропривода</t>
+  </si>
+  <si>
+    <t>Напряжение питания</t>
+  </si>
+  <si>
+    <t>Усилие привода, Н</t>
+  </si>
+  <si>
+    <t>Скорость, сек/мм (мм/мин)</t>
+  </si>
+  <si>
+    <t>Управление</t>
+  </si>
+  <si>
+    <t>3-х поз.</t>
+  </si>
+  <si>
+    <t>230 VAC</t>
+  </si>
+  <si>
+    <t>Потребл. мощность, W</t>
+  </si>
+  <si>
+    <t>Наличие датчика положения
+4-20 mA</t>
+  </si>
+  <si>
+    <t>Наличие возврат-ного меха-низма</t>
+  </si>
+  <si>
+    <t>Область применения:</t>
+  </si>
+  <si>
+    <t>Марка клапана:</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Обозначение электропривода</t>
+  </si>
+  <si>
+    <t>Обозначение электро-привода</t>
+  </si>
+  <si>
+    <t>Масса с электроприводом m=</t>
+  </si>
+  <si>
+    <t>24 VAC/VDC</t>
+  </si>
+  <si>
+    <t>Максимальный расход через клапан:</t>
+  </si>
+  <si>
+    <t>Температура теплоносителя в подающем трубопроводе</t>
+  </si>
+  <si>
+    <t>Температура теплоносителя в обратном трубопроводе</t>
+  </si>
+  <si>
+    <t>Макс. перепад
+давления,
+преодолева-
+емый
+приводом, бар,
+не более</t>
+  </si>
+  <si>
+    <t>4-20 mA
 (2-10 V)</t>
   </si>
   <si>
-    <t>Наличие 
-возврат- 
-ного 
-меха- 
-низма</t>
-  </si>
-  <si>
-    <t>Температура теплоносителя в подающем трубопроводе</t>
-  </si>
-  <si>
-    <t>Температура теплоносителя в обратном трубопроводе</t>
+    <t>Оптимальная скорость в выходном сечении клапана: 2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
+  </si>
+  <si>
+    <t>Рекомендуемая скорость управления для электроприводов TSL-1600, TSL-2200, TSL-3000:
+- системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-100 - 6 сек/мм (10 мм/мин);
+- система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-100 - 2,4 сек/мм (25 мм/мин).</t>
+  </si>
+  <si>
+    <t>Максимальная температура среды через клапан Т1=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +350,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -357,6 +376,15 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -400,29 +428,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <i/>
@@ -515,144 +520,135 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,7 +684,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -982,30 +984,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:K13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
-    <col min="12" max="23" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="3" customWidth="1"/>
+    <col min="12" max="23" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1013,12 +1015,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
+      <c r="H2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1032,20 +1034,20 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="27"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1059,22 +1061,22 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1088,22 +1090,22 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1117,22 +1119,22 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1146,13 +1148,13 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1173,20 +1175,20 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1200,22 +1202,22 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="28"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="23"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="33"/>
+      <c r="G9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1231,22 +1233,20 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="4"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1260,22 +1260,20 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1289,25 +1287,21 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="17" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1322,22 +1316,22 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1351,29 +1345,29 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="B14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="17" t="s">
-        <v>69</v>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="5"/>
@@ -1388,27 +1382,27 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="13" t="s">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="17" t="s">
-        <v>69</v>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="5"/>
@@ -1423,29 +1417,29 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="13" t="s">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="17" t="s">
-        <v>69</v>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="5"/>
@@ -1460,27 +1454,27 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="13" t="s">
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="17" t="s">
-        <v>69</v>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
@@ -1495,21 +1489,21 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1524,21 +1518,21 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1553,20 +1547,20 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1580,22 +1574,22 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="32" t="s">
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1609,22 +1603,22 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="32" t="s">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1638,14 +1632,14 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="3"/>
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1665,20 +1659,20 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1692,20 +1686,20 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1719,7 +1713,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1744,39 +1738,39 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="20" t="s">
+      <c r="D27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="20" t="s">
+      <c r="I27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>72</v>
+      <c r="K27" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1791,18 +1785,18 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1816,20 +1810,20 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1843,35 +1837,35 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>58</v>
+      <c r="K30" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1886,26 +1880,26 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1919,18 +1913,18 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1944,20 +1938,20 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1971,20 +1965,20 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1998,20 +1992,20 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2025,12 +2019,12 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="3"/>
       <c r="G36" s="8"/>
       <c r="H36" s="3"/>
@@ -2050,17 +2044,17 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="D37" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="15" t="s">
-        <v>41</v>
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="D37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2078,17 +2072,17 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="D38" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="15" t="s">
-        <v>41</v>
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2106,17 +2100,17 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="D39" s="28" t="s">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2134,17 +2128,17 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="D40" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="15" t="s">
-        <v>62</v>
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -2162,9 +2156,9 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="3"/>
@@ -2187,10 +2181,15 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2207,10 +2206,15 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2227,47 +2231,49 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+    <row r="44" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2275,24 +2281,17 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K46" s="19"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2307,17 +2306,12 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2342,7 +2336,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2367,7 +2361,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2392,7 +2386,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2417,7 +2411,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2442,7 +2436,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2467,7 +2461,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2492,7 +2486,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2517,7 +2511,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2542,7 +2536,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2567,7 +2561,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2592,7 +2586,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2617,7 +2611,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2642,7 +2636,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2667,7 +2661,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2692,7 +2686,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2717,7 +2711,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2742,7 +2736,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2767,7 +2761,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2792,7 +2786,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2817,7 +2811,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2842,7 +2836,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2867,7 +2861,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2892,7 +2886,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2917,7 +2911,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2942,7 +2936,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2967,7 +2961,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2992,7 +2986,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3018,37 +3012,24 @@
       <c r="W75" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="A37:B46"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="78">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -3056,45 +3037,54 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="D40:F40"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="E24:K24"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="D37:F37"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="D37:F37"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A33:K33"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:K20"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="J6:K6"/>
@@ -3102,7 +3092,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
   </mergeCells>
-  <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="7.874015748031496E-2" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EDBE64F-2CC8-4EF0-9CCF-1B5E5FF6BF81}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,79 +575,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,12 +1015,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1038,16 +1038,16 @@
       <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1062,21 +1062,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1091,21 +1091,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1120,21 +1120,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1149,12 +1149,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1176,19 +1176,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1203,21 +1203,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1234,17 +1234,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="19"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1261,17 +1261,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="19"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1288,17 +1288,17 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="19"/>
       <c r="K12" s="18" t="s">
         <v>43</v>
@@ -1317,21 +1317,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="40" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="40" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1346,26 +1346,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1383,24 +1383,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1418,26 +1418,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="4" t="s">
         <v>43</v>
       </c>
@@ -1455,24 +1455,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1490,20 +1490,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1519,20 +1519,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1548,13 +1548,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1575,21 +1575,21 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="28" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="33"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1604,21 +1604,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="28" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="33"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1633,13 +1633,13 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1660,19 +1660,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1687,19 +1687,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1811,13 +1811,13 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1838,33 +1838,33 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="40"/>
+      <c r="E30" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26" t="s">
+      <c r="H30" s="40"/>
+      <c r="I30" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="40" t="s">
         <v>61</v>
       </c>
       <c r="L30" s="2"/>
@@ -1880,26 +1880,26 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="11" t="s">
         <v>59</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1939,19 +1939,19 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1966,19 +1966,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1993,19 +1993,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2047,11 +2047,11 @@
     <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="17"/>
       <c r="H37" s="16" t="s">
         <v>44</v>
@@ -2075,11 +2075,11 @@
     <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="17"/>
       <c r="H38" s="16" t="s">
         <v>44</v>
@@ -2103,11 +2103,11 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="17"/>
       <c r="H39" s="16" t="s">
         <v>44</v>
@@ -2131,11 +2131,11 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="17"/>
       <c r="H40" s="16" t="s">
         <v>66</v>
@@ -3013,30 +3013,44 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="E25:K25"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
@@ -3053,44 +3067,30 @@
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EDBE64F-2CC8-4EF0-9CCF-1B5E5FF6BF81}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8549556-4451-4714-9B2B-8406D7EA2C2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,9 +274,6 @@
 4-20 mA</t>
   </si>
   <si>
-    <t>Наличие возврат-ного меха-низма</t>
-  </si>
-  <si>
     <t>Область применения:</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
   </si>
   <si>
     <t>Обозначение электропривода</t>
-  </si>
-  <si>
-    <t>Обозначение электро-привода</t>
   </si>
   <si>
     <t>Масса с электроприводом m=</t>
@@ -328,6 +322,12 @@
   </si>
   <si>
     <t>Максимальная температура среды через клапан Т1=</t>
+  </si>
+  <si>
+    <t>Обозначение электро- привода</t>
+  </si>
+  <si>
+    <t>Наличие возврат- ного меха- низма</t>
   </si>
 </sst>
 </file>
@@ -575,23 +575,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,51 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +678,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
+      <xdr:colOff>493712</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>10835</xdr:rowOff>
     </xdr:to>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,8 +1001,8 @@
     <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.109375" style="3" customWidth="1"/>
     <col min="8" max="9" width="9.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.109375" style="2"/>
   </cols>
   <sheetData>
@@ -1015,12 +1015,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1038,16 +1038,16 @@
       <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1062,21 +1062,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1091,21 +1091,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
+      <c r="A5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1120,21 +1120,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1149,12 +1149,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1176,19 +1176,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1203,21 +1203,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1234,17 +1234,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="19"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1261,17 +1261,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="19"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1288,17 +1288,17 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
+      <c r="A12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="19"/>
       <c r="K12" s="18" t="s">
         <v>43</v>
@@ -1317,21 +1317,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1346,26 +1346,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1383,24 +1383,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1418,26 +1418,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="4" t="s">
         <v>43</v>
       </c>
@@ -1455,24 +1455,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1490,20 +1490,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="23" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1519,20 +1519,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
+      <c r="A19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1548,13 +1548,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1575,21 +1575,21 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="35"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1604,21 +1604,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="23" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="35"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1633,13 +1633,13 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1660,19 +1660,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1687,19 +1687,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1770,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1811,13 +1811,13 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1838,33 +1838,33 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="40" t="s">
+      <c r="A30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40" t="s">
+      <c r="H30" s="26"/>
+      <c r="I30" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="40" t="s">
+      <c r="J30" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="26" t="s">
         <v>61</v>
       </c>
       <c r="L30" s="2"/>
@@ -1881,25 +1881,25 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+        <v>68</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="11" t="s">
         <v>59</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
+        <v>73</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1939,19 +1939,19 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
+      <c r="A33" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1966,19 +1966,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
+      <c r="A34" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1993,19 +1993,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2047,11 +2047,11 @@
     <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="17"/>
       <c r="H37" s="16" t="s">
         <v>44</v>
@@ -2075,11 +2075,11 @@
     <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="17"/>
       <c r="H38" s="16" t="s">
         <v>44</v>
@@ -2103,11 +2103,11 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="17"/>
       <c r="H39" s="16" t="s">
         <v>44</v>
@@ -2131,14 +2131,14 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="D40" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="D40" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="17"/>
       <c r="H40" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -3013,14 +3013,60 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="E25:K25"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
@@ -3037,60 +3083,14 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8549556-4451-4714-9B2B-8406D7EA2C2D}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{603B318F-C2B8-4128-A29D-8540DDA239B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,80 +575,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,12 +1015,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1038,16 +1038,16 @@
       <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1062,21 +1062,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1091,21 +1091,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1120,21 +1120,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1149,12 +1149,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1176,19 +1176,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1203,21 +1203,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1234,17 +1234,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="19"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1261,17 +1261,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="19"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1288,17 +1288,17 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="19"/>
       <c r="K12" s="18" t="s">
         <v>43</v>
@@ -1317,21 +1317,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="41" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="41" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1346,26 +1346,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1383,24 +1383,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1418,26 +1418,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="4" t="s">
         <v>43</v>
       </c>
@@ -1455,24 +1455,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1490,20 +1490,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1519,20 +1519,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1548,13 +1548,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1575,21 +1575,21 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="28" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="33"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1604,21 +1604,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="28" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="33"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1633,13 +1633,13 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1660,19 +1660,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1687,19 +1687,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1785,7 +1785,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1811,13 +1811,13 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1838,33 +1838,33 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="40"/>
+      <c r="E30" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26" t="s">
+      <c r="H30" s="40"/>
+      <c r="I30" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="40" t="s">
         <v>61</v>
       </c>
       <c r="L30" s="2"/>
@@ -1881,25 +1881,25 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="11" t="s">
         <v>59</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1939,19 +1939,19 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1966,19 +1966,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1993,19 +1993,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2047,11 +2047,11 @@
     <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="17"/>
       <c r="H37" s="16" t="s">
         <v>44</v>
@@ -2075,11 +2075,11 @@
     <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="17"/>
       <c r="H38" s="16" t="s">
         <v>44</v>
@@ -2103,11 +2103,11 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="17"/>
       <c r="H39" s="16" t="s">
         <v>44</v>
@@ -2131,11 +2131,11 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="17"/>
       <c r="H40" s="16" t="s">
         <v>65</v>
@@ -3013,30 +3013,44 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="E25:K25"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
@@ -3053,44 +3067,30 @@
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{603B318F-C2B8-4128-A29D-8540DDA239B6}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81F01F72-0533-43DE-B28B-2E3F2C35DA48}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Номинальный диаметр DN, мм</t>
-  </si>
-  <si>
-    <t>Пропускная способность Kvs, м3/ч</t>
   </si>
   <si>
     <t>Качество регулирования</t>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>Наличие возврат- ного меха- низма</t>
+  </si>
+  <si>
+    <t>Пропускная способность Kvs, м³/ч</t>
   </si>
 </sst>
 </file>
@@ -575,23 +575,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,51 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,7 +988,7 @@
   <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,12 +1015,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1036,18 +1036,18 @@
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1062,21 +1062,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="A4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1091,21 +1091,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="A5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1120,21 +1120,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="A6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1149,12 +1149,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1176,19 +1176,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="A8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1203,21 +1203,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
+      <c r="G9" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1234,17 +1234,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+      <c r="A10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="19"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1261,17 +1261,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
+      <c r="A11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="19"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1288,20 +1288,20 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
+      <c r="A12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="19"/>
       <c r="K12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1317,21 +1317,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="26" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1346,28 +1346,28 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="22"/>
+      <c r="A14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="5"/>
@@ -1383,26 +1383,26 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="23"/>
       <c r="D15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="5"/>
@@ -1418,28 +1418,28 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="22"/>
+      <c r="A16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="23"/>
       <c r="D16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="5"/>
@@ -1455,26 +1455,26 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="23"/>
       <c r="D17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
@@ -1490,20 +1490,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1519,20 +1519,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="A19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1548,13 +1548,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="A20" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1575,21 +1575,21 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="35"/>
+      <c r="A21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1604,21 +1604,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="35"/>
+      <c r="A22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1633,13 +1633,13 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="A23" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1660,19 +1660,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="A24" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1687,19 +1687,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1746,31 +1746,31 @@
         <v>1</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="G27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>6</v>
-      </c>
       <c r="K27" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1811,13 +1811,13 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="A29" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1838,34 +1838,34 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="40" t="s">
+      <c r="A30" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40" t="s">
+      <c r="F30" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="G30" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="40" t="s">
+      <c r="H30" s="26"/>
+      <c r="I30" s="26" t="s">
         <v>61</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1881,25 +1881,25 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+        <v>67</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
+        <v>72</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1939,19 +1939,19 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
+      <c r="A33" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1966,19 +1966,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
+      <c r="A34" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1993,19 +1993,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
+      <c r="A35" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2047,14 +2047,14 @@
     <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="D37" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="D37" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="17"/>
       <c r="H37" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2075,14 +2075,14 @@
     <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="D38" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="D38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="17"/>
       <c r="H38" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2103,14 +2103,14 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="D39" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="D39" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="17"/>
       <c r="H39" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2131,14 +2131,14 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="D40" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="D40" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="17"/>
       <c r="H40" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -3013,14 +3013,60 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="E25:K25"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
@@ -3037,60 +3083,14 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81F01F72-0533-43DE-B28B-2E3F2C35DA48}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D188564A-C31E-4C5F-9533-A497EDE38EBC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Пропускная способность Kvs, м³/ч</t>
+  </si>
+  <si>
+    <t>Датчики температуры поставляются отдельно.</t>
   </si>
 </sst>
 </file>
@@ -539,9 +542,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -551,9 +551,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -575,80 +572,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,12 +1018,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1035,7 +1038,7 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="31"/>
@@ -1062,21 +1065,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1091,21 +1094,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1120,21 +1123,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1149,12 +1152,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1176,19 +1179,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1203,21 +1206,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1234,18 +1237,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1261,18 +1264,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1288,19 +1291,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="18" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="2"/>
@@ -1317,21 +1320,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="41" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="41" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1346,26 +1349,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1383,24 +1386,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1418,26 +1421,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1455,24 +1458,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="4" t="s">
         <v>42</v>
       </c>
@@ -1490,20 +1493,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1519,20 +1522,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1548,13 +1551,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1575,19 +1578,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="31"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="31"/>
       <c r="K21" s="33"/>
       <c r="L21" s="2"/>
@@ -1604,19 +1607,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="31"/>
       <c r="K22" s="33"/>
       <c r="L22" s="2"/>
@@ -1633,13 +1636,13 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1660,19 +1663,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1687,19 +1690,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1739,37 +1742,37 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>76</v>
       </c>
       <c r="L27" s="2"/>
@@ -1786,17 +1789,17 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1811,19 +1814,19 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1838,33 +1841,33 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26" t="s">
+      <c r="H30" s="38"/>
+      <c r="I30" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="38" t="s">
         <v>60</v>
       </c>
       <c r="L30" s="2"/>
@@ -1881,25 +1884,25 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="11" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1914,17 +1917,17 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1939,19 +1942,19 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1966,19 +1969,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1993,19 +1996,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2019,18 +2022,20 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2047,15 +2052,6 @@
     <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="D37" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2075,13 +2071,13 @@
     <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="D38" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="16" t="s">
+      <c r="D38" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="3"/>
@@ -2103,13 +2099,13 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="D39" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="16" t="s">
+      <c r="D39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="3"/>
@@ -2131,14 +2127,14 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="D40" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="16" t="s">
-        <v>64</v>
+      <c r="D40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -2159,12 +2155,16 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2262,10 +2262,6 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -2282,10 +2278,6 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -2302,10 +2294,6 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -2322,11 +2310,6 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -3012,62 +2995,17 @@
       <c r="W75" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="K30:K31"/>
+  <mergeCells count="79">
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="D37:F37"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -3083,14 +3021,60 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D188564A-C31E-4C5F-9533-A497EDE38EBC}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8584385C-E5B1-4613-84A3-73C8C4C9A50B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Датчики температуры поставляются отдельно.</t>
+  </si>
+  <si>
+    <t>Наличие функции регулирования температуры (датчик температуры подключается к электроприводу):</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -519,11 +522,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,110 +586,131 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,7 +742,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>493712</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>10835</xdr:rowOff>
+      <xdr:rowOff>20360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -988,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,12 +1077,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1037,20 +1096,20 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1065,21 +1124,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1094,21 +1153,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1123,21 +1182,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1152,12 +1211,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1179,19 +1238,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1206,21 +1265,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1237,18 +1296,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="17"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1264,18 +1323,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="17"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1291,19 +1350,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="2"/>
@@ -1320,21 +1379,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="24" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="24" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1349,26 +1408,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1386,24 +1445,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1421,26 +1480,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1458,24 +1517,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="4" t="s">
         <v>42</v>
       </c>
@@ -1493,20 +1552,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="21" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1522,20 +1581,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1551,13 +1610,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1578,21 +1637,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>18</v>
+      <c r="A21" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="B21" s="23"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="33"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1607,21 +1664,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="33"/>
+      <c r="A22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1636,19 +1693,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="A23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1663,19 +1722,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="A24" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1690,18 +1749,18 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="A25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="34"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1716,18 +1775,20 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1741,40 +1802,18 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>76</v>
-      </c>
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1788,18 +1827,40 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1813,20 +1874,18 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1840,36 +1899,20 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="38" t="s">
-        <v>60</v>
-      </c>
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1883,26 +1926,36 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="51"/>
+      <c r="I31" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>60</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1916,18 +1969,26 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1941,20 +2002,18 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1968,20 +2027,20 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1995,20 +2054,20 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2022,20 +2081,20 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2049,12 +2108,20 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2069,20 +2136,11 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="D38" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2097,20 +2155,20 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="D39" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="14" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="D39" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2125,20 +2183,20 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="D40" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="14" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="D40" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2152,22 +2210,21 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="D41" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2181,18 +2238,22 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2207,17 +2268,17 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2231,27 +2292,32 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2262,6 +2328,10 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -2310,10 +2380,6 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -2330,11 +2396,6 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -2769,7 +2830,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2894,7 +2955,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2994,9 +3055,34 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
+    <row r="76" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="A36:K36"/>
+  <mergeCells count="81">
+    <mergeCell ref="A37:K37"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A6:B6"/>
@@ -3005,52 +3091,54 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:K25"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="K31:K32"/>
     <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:K3"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8584385C-E5B1-4613-84A3-73C8C4C9A50B}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A594953C-B61D-46BD-BC36-616753D767FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -74,21 +74,6 @@
     <t>Внешний авторитет клапана</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Предельно допустимый перепад давлений на клапане </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ΔPпред, бар</t>
-    </r>
-  </si>
-  <si>
     <t>Дата расчета:</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
   </si>
   <si>
     <t>Управление:</t>
-  </si>
-  <si>
-    <t>Наличие датчика положения 4-20 mA:</t>
   </si>
   <si>
     <t>Наличие возвратного механизма:</t>
@@ -267,10 +249,6 @@
     <t>Потребл. мощность, W</t>
   </si>
   <si>
-    <t>Наличие датчика положения
-4-20 mA</t>
-  </si>
-  <si>
     <t>Область применения:</t>
   </si>
   <si>
@@ -306,10 +284,6 @@
 не более</t>
   </si>
   <si>
-    <t>4-20 mA
-(2-10 V)</t>
-  </si>
-  <si>
     <t>Оптимальная скорость в выходном сечении клапана: 2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
   </si>
   <si>
@@ -321,9 +295,6 @@
     <t>Максимальная температура среды через клапан Т1=</t>
   </si>
   <si>
-    <t>Обозначение электро- привода</t>
-  </si>
-  <si>
     <t>Наличие возврат- ного меха- низма</t>
   </si>
   <si>
@@ -334,6 +305,21 @@
   </si>
   <si>
     <t>Наличие функции регулирования температуры (датчик температуры подключается к электроприводу):</t>
+  </si>
+  <si>
+    <t>Предельно допустимый перепад давлений на клапане ΔPпред, бар</t>
+  </si>
+  <si>
+    <t>Наличие датчика положения 0(4)-20 mA:</t>
+  </si>
+  <si>
+    <t>0(4)-20 mA,
+0(2)-10 V</t>
+  </si>
+  <si>
+    <t>Наличие датчика положения
+0(4)-20 mA,
+0(2)-10 V</t>
   </si>
 </sst>
 </file>
@@ -613,23 +599,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -641,75 +696,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -740,9 +726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>493712</xdr:colOff>
+      <xdr:colOff>422275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>20360</xdr:rowOff>
+      <xdr:rowOff>16550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1049,18 +1035,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.109375" style="3" customWidth="1"/>
     <col min="8" max="9" width="9.88671875" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.5546875" style="3" customWidth="1"/>
@@ -1077,12 +1063,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="H2" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1096,20 +1082,20 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1124,21 +1110,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="A4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1153,21 +1139,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="A5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1182,21 +1168,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="A6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1211,12 +1197,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1238,19 +1224,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="A8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1265,21 +1251,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="21"/>
+      <c r="A9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1296,17 +1282,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
+      <c r="A10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1323,17 +1309,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
+      <c r="A11" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1350,20 +1336,20 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
+      <c r="A12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1379,21 +1365,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1408,28 +1394,28 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="5"/>
@@ -1445,26 +1431,26 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="21"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="27"/>
       <c r="D15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="5"/>
@@ -1480,28 +1466,28 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="21"/>
+      <c r="A16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="5"/>
@@ -1517,26 +1503,26 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="21"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="27"/>
       <c r="D17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
@@ -1552,20 +1538,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="A18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1581,20 +1567,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="A19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1610,13 +1596,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="A20" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1637,19 +1623,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="A21" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1664,21 +1650,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="34"/>
+      <c r="A22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1693,21 +1679,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="34"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1722,13 +1708,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="A24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1749,19 +1735,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="A25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1776,19 +1762,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="A26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1802,7 +1788,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1827,7 +1813,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>0</v>
       </c>
@@ -1835,31 +1821,29 @@
         <v>1</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="G28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="H28" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="I28" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="J28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1874,12 +1858,12 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1900,13 +1884,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="A30" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1927,34 +1911,34 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="50" t="s">
+      <c r="A31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="41" t="s">
+      <c r="G31" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>60</v>
+      <c r="H31" s="26"/>
+      <c r="I31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1970,25 +1954,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+        <v>64</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+        <v>78</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2027,20 +2011,20 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2055,19 +2039,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
+      <c r="A35" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2081,20 +2065,20 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2108,20 +2092,20 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2135,7 +2119,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="I38" s="15"/>
@@ -2157,14 +2141,14 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="D39" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
+      <c r="D39" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -2185,14 +2169,14 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="D40" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
+      <c r="D40" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
@@ -2213,14 +2197,14 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="D41" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
+      <c r="D41" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -2242,14 +2226,14 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
+      <c r="D42" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -3081,7 +3065,74 @@
       <c r="W76" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="83">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="F5:I5"/>
@@ -3098,71 +3149,6 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A594953C-B61D-46BD-BC36-616753D767FB}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EC90DEE6-ECDD-43DF-A6F0-5E75E10911DA}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,7 +728,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>422275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>16550</xdr:rowOff>
+      <xdr:rowOff>20360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1986,7 +1986,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EC90DEE6-ECDD-43DF-A6F0-5E75E10911DA}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5EBAA94-431A-40DE-8576-14FC4FB947D6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -725,8 +725,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>422275</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>20360</xdr:rowOff>
     </xdr:to>
@@ -758,7 +758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1"/>
-          <a:ext cx="6334125" cy="804584"/>
+          <a:ext cx="6850062" cy="814109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1035,27 +1035,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B32"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="3" customWidth="1"/>
-    <col min="12" max="23" width="9.109375" style="2"/>
+    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="3" customWidth="1"/>
+    <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1082,7 +1082,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>59</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
         <v>14</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>45</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>48</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>49</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>71</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="51"/>
       <c r="C13" s="32"/>
@@ -1393,7 +1393,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>26</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
         <v>29</v>
@@ -1465,7 +1465,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="27" t="s">
         <v>31</v>
@@ -1537,7 +1537,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>65</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>75</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>18</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>20</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>22</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1813,7 +1813,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1883,7 +1883,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
         <v>50</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>62</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="17" t="s">
@@ -1986,7 +1986,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -2011,7 +2011,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
         <v>69</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>23</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>74</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="I38" s="15"/>
@@ -2138,7 +2138,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="D39" s="28" t="s">
@@ -2166,7 +2166,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="D40" s="28" t="s">
@@ -2194,7 +2194,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="D41" s="28" t="s">
@@ -2222,7 +2222,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
@@ -2251,7 +2251,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -2276,7 +2276,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -2301,7 +2301,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2321,7 +2321,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2337,7 +2337,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2353,7 +2353,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2369,7 +2369,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2389,7 +2389,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2414,7 +2414,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2439,7 +2439,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2464,7 +2464,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2489,7 +2489,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2514,7 +2514,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2539,7 +2539,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2564,7 +2564,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2589,7 +2589,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2614,7 +2614,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2639,7 +2639,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2664,7 +2664,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2689,7 +2689,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2714,7 +2714,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2739,7 +2739,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2764,7 +2764,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2789,7 +2789,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2814,7 +2814,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2839,7 +2839,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2864,7 +2864,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2889,7 +2889,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2914,7 +2914,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2939,7 +2939,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2964,7 +2964,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2989,7 +2989,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3014,7 +3014,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3039,7 +3039,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5EBAA94-431A-40DE-8576-14FC4FB947D6}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAC3FBF8-313E-40B8-AC8B-77802FE4481B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -599,104 +599,107 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,30 +720,30 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>615312</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>20360</xdr:rowOff>
+      <xdr:rowOff>20359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
+        <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0644D25-EC60-4F63-829A-ED26C8E5F481}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -757,15 +760,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="6850062" cy="814109"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6624000" cy="814109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1036,7 +1039,7 @@
   <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1049,7 @@
     <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
     <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="3" customWidth="1"/>
@@ -1054,7 +1057,19 @@
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
@@ -1063,12 +1078,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1086,16 +1101,16 @@
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1110,21 +1125,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1139,21 +1154,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1168,21 +1183,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1197,12 +1212,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1224,19 +1239,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1251,21 +1266,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1282,17 +1297,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1309,17 +1324,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1336,17 +1351,17 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
         <v>40</v>
@@ -1365,21 +1380,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="48" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="48" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1394,26 +1409,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="4" t="s">
         <v>40</v>
       </c>
@@ -1431,24 +1446,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="4" t="s">
         <v>40</v>
       </c>
@@ -1466,26 +1481,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="4" t="s">
         <v>40</v>
       </c>
@@ -1503,24 +1518,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1538,20 +1553,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1567,20 +1582,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1596,13 +1611,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1623,19 +1638,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1650,21 +1665,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="28" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="37"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1679,21 +1694,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="28" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="37"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1708,13 +1723,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1735,19 +1750,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1762,19 +1777,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1823,10 +1838,10 @@
       <c r="C28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="17" t="s">
         <v>7</v>
       </c>
@@ -1862,8 +1877,8 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1884,13 +1899,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1911,33 +1926,33 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="23" t="s">
+      <c r="H31" s="49"/>
+      <c r="I31" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="41" t="s">
         <v>58</v>
       </c>
       <c r="L31" s="2"/>
@@ -1954,25 +1969,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="17" t="s">
         <v>56</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2012,19 +2027,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2039,19 +2054,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2066,19 +2081,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2093,19 +2108,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2141,11 +2156,11 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="29"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
         <v>41</v>
@@ -2169,11 +2184,11 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="29"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
         <v>41</v>
@@ -2197,11 +2212,11 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="29"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="s">
         <v>41</v>
@@ -2226,11 +2241,11 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
         <v>61</v>
@@ -3065,31 +3080,52 @@
       <c r="W76" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="84">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
@@ -3106,49 +3142,29 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="F22:I22"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAC3FBF8-313E-40B8-AC8B-77802FE4481B}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{858D6EA8-F58B-4808-A635-5C58DC07130F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -599,17 +599,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -620,86 +698,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,17 +1058,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1078,12 +1078,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1101,16 +1101,16 @@
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1125,21 +1125,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1154,21 +1154,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1183,21 +1183,21 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1212,12 +1212,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1239,19 +1239,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1266,21 +1266,21 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1297,17 +1297,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1324,17 +1324,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1351,17 +1351,17 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
         <v>40</v>
@@ -1380,21 +1380,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="23" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1409,26 +1409,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="4" t="s">
         <v>40</v>
       </c>
@@ -1446,24 +1446,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="28"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="28"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="4" t="s">
         <v>40</v>
       </c>
@@ -1481,26 +1481,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="28"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="4" t="s">
         <v>40</v>
       </c>
@@ -1518,24 +1518,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="28"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1553,20 +1553,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1582,20 +1582,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1611,13 +1611,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1638,19 +1638,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="28"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1665,21 +1665,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="19" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="34"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1694,21 +1694,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="19" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="34"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1723,13 +1723,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1750,19 +1750,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1777,19 +1777,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1838,10 +1838,10 @@
       <c r="C28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="17" t="s">
         <v>7</v>
       </c>
@@ -1877,8 +1877,8 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1899,13 +1899,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1926,33 +1926,33 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="41" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="41" t="s">
+      <c r="H31" s="27"/>
+      <c r="I31" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="24" t="s">
         <v>58</v>
       </c>
       <c r="L31" s="2"/>
@@ -1969,25 +1969,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="17" t="s">
         <v>56</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2027,19 +2027,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2054,19 +2054,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2081,19 +2081,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2108,19 +2108,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2156,11 +2156,11 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
         <v>41</v>
@@ -2184,11 +2184,11 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
         <v>41</v>
@@ -2212,11 +2212,11 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="s">
         <v>41</v>
@@ -2241,11 +2241,11 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
         <v>61</v>
@@ -3081,6 +3081,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="J5:K5"/>
@@ -3097,74 +3165,6 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{858D6EA8-F58B-4808-A635-5C58DC07130F}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5721CE04-C734-4919-B15B-FB2B2CD41EBF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:K23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,12 +1048,12 @@
     <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
     <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{9ED26EFC-5770-46C3-B258-2113F5CC8C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5721CE04-C734-4919-B15B-FB2B2CD41EBF}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1DE73C2019F529DF09AFA0E86561F075689B104F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{755F5FD4-1992-4FAF-BFB8-A3D4AA9FA061}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Объект:</t>
   </si>
   <si>
-    <t>Место установки:</t>
-  </si>
-  <si>
     <t>Схема присоединения:</t>
   </si>
   <si>
@@ -207,15 +204,6 @@
     <t>Высота H=</t>
   </si>
   <si>
-    <t>Потери давления:</t>
-  </si>
-  <si>
-    <t>в системе ΔPсист=</t>
-  </si>
-  <si>
-    <t>в теплообменнике ΔPто=</t>
-  </si>
-  <si>
     <t>Расчетные потери давления на клапане ΔPкл=</t>
   </si>
   <si>
@@ -321,12 +309,15 @@
 0(4)-20 mA,
 0(2)-10 V</t>
   </si>
+  <si>
+    <t>Потери давления на регулируемом участке (без учета регулирующего клапана) ΔPру'=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,15 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -547,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -572,13 +554,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -599,107 +581,104 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
@@ -1048,7 +1027,7 @@
     <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
     <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
@@ -1058,17 +1037,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1078,12 +1057,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1101,16 +1080,16 @@
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1125,21 +1104,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1154,21 +1133,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="A5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1183,21 +1162,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="A6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1212,12 +1189,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1239,19 +1216,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="A8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1266,21 +1243,17 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="30"/>
+      <c r="A9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1297,17 +1270,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="30"/>
+      <c r="A10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1324,17 +1297,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="30"/>
+      <c r="A11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1351,20 +1324,20 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="30"/>
+      <c r="A12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1380,21 +1353,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1409,28 +1382,28 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="28"/>
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="5"/>
@@ -1446,26 +1419,26 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+        <v>31</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="5"/>
@@ -1481,28 +1454,28 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="28"/>
+      <c r="A16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="22"/>
       <c r="D16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
+        <v>35</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+        <v>37</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="5"/>
@@ -1518,26 +1491,26 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="28"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="22"/>
       <c r="D17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+        <v>36</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
@@ -1553,20 +1526,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1582,20 +1555,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="A19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1611,13 +1584,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="A20" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1638,19 +1611,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="A21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1665,21 +1638,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
+      <c r="A22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1694,21 +1667,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1723,13 +1696,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1750,19 +1723,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="A25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1777,19 +1750,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
+      <c r="A26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1836,12 +1809,12 @@
         <v>1</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="17" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>5</v>
@@ -1877,8 +1850,8 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1899,13 +1872,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="A30" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1926,34 +1899,34 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="24" t="s">
+      <c r="K31" s="41" t="s">
         <v>54</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>58</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1969,25 +1942,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2027,19 +2000,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
+      <c r="A34" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2054,19 +2027,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
+      <c r="A35" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2081,19 +2054,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
+      <c r="A36" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2108,19 +2081,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="A37" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2156,14 +2129,14 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="D39" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="30"/>
+      <c r="D39" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -2184,14 +2157,14 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="D40" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="30"/>
+      <c r="D40" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
@@ -2212,14 +2185,14 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="D41" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="30"/>
+      <c r="D41" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -2241,14 +2214,14 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
+      <c r="D42" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -3080,30 +3053,50 @@
       <c r="W76" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
+  <mergeCells count="80">
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
@@ -3120,51 +3113,27 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\Бланки расчетных листов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1DE73C2019F529DF09AFA0E86561F075689B104F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{755F5FD4-1992-4FAF-BFB8-A3D4AA9FA061}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -116,9 +115,6 @@
     <t>Максимальное рабочее давление:</t>
   </si>
   <si>
-    <t>Рекомендуемая скорость управления для электроприводов TW500, TW1001, TW3000 - 2 сек/мм (30 мм/мин).</t>
-  </si>
-  <si>
     <t>Тепловая мощность:</t>
   </si>
   <si>
@@ -275,11 +271,6 @@
     <t>Оптимальная скорость в выходном сечении клапана: 2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
   </si>
   <si>
-    <t>Рекомендуемая скорость управления для электроприводов TSL-1600, TSL-2200, TSL-3000:
-- системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-100 - 6 сек/мм (10 мм/мин);
-- система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-100 - 2,4 сек/мм (25 мм/мин).</t>
-  </si>
-  <si>
     <t>Максимальная температура среды через клапан Т1=</t>
   </si>
   <si>
@@ -311,12 +302,20 @@
   </si>
   <si>
     <t>Потери давления на регулируемом участке (без учета регулирующего клапана) ΔPру'=</t>
+  </si>
+  <si>
+    <t>Рекомендуемая скорость управления для электропривода TW5000 - 2 сек/мм (30 мм/мин).</t>
+  </si>
+  <si>
+    <t>Рекомендуемая скорость управления для электроприводов TSL:
+- системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-200 - 6 сек/мм (10 мм/мин);
+- система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-200 - 2,4 сек/мм (25 мм/мин).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,17 +580,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -602,83 +676,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,11 +1013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:E23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,17 +1036,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1057,12 +1056,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1080,16 +1079,16 @@
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1104,21 +1103,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1133,21 +1132,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
+      <c r="A5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1162,19 +1161,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="A6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1189,12 +1188,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1216,19 +1215,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1243,17 +1242,17 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="A9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1270,17 +1269,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="A10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1297,17 +1296,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="A11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1324,20 +1323,20 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="A12" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1353,21 +1352,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="23" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1382,28 +1381,28 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="22"/>
+      <c r="A14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="30"/>
       <c r="D14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="28"/>
+        <v>33</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="5"/>
@@ -1419,26 +1418,26 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="22"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="30"/>
       <c r="D15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="5"/>
@@ -1454,28 +1453,28 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="22"/>
+      <c r="A16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="30"/>
       <c r="D16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="5"/>
@@ -1491,26 +1490,26 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="22"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="30"/>
       <c r="D17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
@@ -1526,20 +1525,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="28"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1555,20 +1554,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
+      <c r="A19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1584,13 +1583,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1611,19 +1610,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="28"/>
+      <c r="A21" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1638,21 +1637,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="28"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1667,21 +1666,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="19" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="28"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1696,13 +1695,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1723,19 +1722,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1750,19 +1749,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1809,12 +1808,12 @@
         <v>1</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="17" t="s">
         <v>7</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>5</v>
@@ -1850,8 +1849,8 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1872,13 +1871,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
+      <c r="A30" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1899,34 +1898,34 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="48" t="s">
+      <c r="A31" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="41" t="s">
+      <c r="F31" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="G31" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>54</v>
+      <c r="H31" s="29"/>
+      <c r="I31" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1942,25 +1941,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+        <v>59</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+        <v>72</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2000,19 +1999,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
+      <c r="A34" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2027,19 +2026,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
+      <c r="A35" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2054,19 +2053,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="A36" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2081,19 +2080,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
+      <c r="A37" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2129,14 +2128,14 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="D39" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="D39" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="32"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -2157,14 +2156,14 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="D40" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="D40" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
@@ -2185,14 +2184,14 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="D41" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="D41" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -2214,14 +2213,14 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
+      <c r="D42" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -3054,6 +3053,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="C6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A37:K37"/>
@@ -3070,70 +3133,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\Бланки расчетных листов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A90D8F0-59F5-4BDF-B585-C27B0E2B9B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="11715"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -103,9 +104,6 @@
     <t>Управление:</t>
   </si>
   <si>
-    <t>Наличие возвратного механизма:</t>
-  </si>
-  <si>
     <t>Результат расчета регулирующего клапана</t>
   </si>
   <si>
@@ -274,9 +272,6 @@
     <t>Максимальная температура среды через клапан Т1=</t>
   </si>
   <si>
-    <t>Наличие возврат- ного меха- низма</t>
-  </si>
-  <si>
     <t>Пропускная способность Kvs, м³/ч</t>
   </si>
   <si>
@@ -310,12 +305,18 @@
     <t>Рекомендуемая скорость управления для электроприводов TSL:
 - системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-200 - 6 сек/мм (10 мм/мин);
 - система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-200 - 2,4 сек/мм (25 мм/мин).</t>
+  </si>
+  <si>
+    <t>Наличие функции безопасности:</t>
+  </si>
+  <si>
+    <t>Наличие функции безопас-ности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,6 +581,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -589,95 +629,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,40 +1014,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1056,12 +1057,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1079,16 +1080,16 @@
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1103,21 +1104,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1132,21 +1133,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
+      <c r="A5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1161,19 +1162,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="A6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1188,12 +1189,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1215,19 +1216,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1242,17 +1243,17 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="32"/>
+      <c r="A9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1269,17 +1270,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="32"/>
+      <c r="A10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1296,17 +1297,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="32"/>
+      <c r="A11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1323,20 +1324,20 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="32"/>
+      <c r="A12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1352,21 +1353,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="48" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1381,28 +1382,28 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="30"/>
+      <c r="A14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+        <v>30</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="5"/>
@@ -1418,26 +1419,26 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="30"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
+        <v>31</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="5"/>
@@ -1453,28 +1454,28 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="30"/>
+      <c r="A16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="22"/>
       <c r="D16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+        <v>33</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+        <v>35</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="5"/>
@@ -1490,26 +1491,26 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="30"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="22"/>
       <c r="D17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
@@ -1525,20 +1526,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1554,20 +1555,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30" t="s">
+      <c r="A19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1583,13 +1584,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1610,19 +1611,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="A21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1637,21 +1638,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1666,21 +1667,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1695,13 +1696,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="A24" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1722,19 +1723,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="A25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1749,19 +1750,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
+      <c r="A26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1808,12 +1809,12 @@
         <v>1</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="17" t="s">
         <v>7</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>5</v>
@@ -1849,8 +1850,8 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1871,13 +1872,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="A30" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1898,34 +1899,34 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="28" t="s">
+      <c r="A31" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="26" t="s">
+      <c r="F31" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="G31" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>53</v>
+      <c r="H31" s="49"/>
+      <c r="I31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>52</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1941,25 +1942,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1999,19 +2000,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
+      <c r="A34" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2026,19 +2027,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
+      <c r="A35" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2053,19 +2054,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
+      <c r="A36" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2080,19 +2081,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
+      <c r="A37" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2128,14 +2129,14 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="D39" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="32"/>
+      <c r="D39" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -2156,14 +2157,14 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="D40" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="32"/>
+      <c r="D40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
@@ -2184,14 +2185,14 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="D41" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="32"/>
+      <c r="D41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -2213,14 +2214,14 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
+      <c r="D42" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -3053,27 +3054,49 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
@@ -3090,49 +3113,27 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A90D8F0-59F5-4BDF-B585-C27B0E2B9B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C568183-367F-4B39-9F2D-4388C854659C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,13 +33,7 @@
     <t>Номинальный диаметр DN, мм</t>
   </si>
   <si>
-    <t>Качество регулирования</t>
-  </si>
-  <si>
     <t>Скорость в выходном сечении клапана V, м/с</t>
-  </si>
-  <si>
-    <t>Шум, некачественное регулирование</t>
   </si>
   <si>
     <t>Кавитация</t>
@@ -311,6 +305,12 @@
   </si>
   <si>
     <t>Наличие функции безопас-ности</t>
+  </si>
+  <si>
+    <t>Шум, колебатель-ный режим</t>
+  </si>
+  <si>
+    <t>Качество регули-рования</t>
   </si>
 </sst>
 </file>
@@ -581,17 +581,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -602,83 +677,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31:K32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,17 +1037,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1057,12 +1057,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="H2" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1078,18 +1078,18 @@
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1104,21 +1104,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1133,21 +1133,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="A5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1162,19 +1162,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="A6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1189,12 +1189,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1216,19 +1216,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="A8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1243,17 +1243,17 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="A9" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1270,17 +1270,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="A10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1297,17 +1297,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="A11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1324,20 +1324,20 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="A12" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1353,21 +1353,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1382,28 +1382,28 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="5"/>
@@ -1419,26 +1419,26 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="22"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="30"/>
       <c r="D15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="28"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="5"/>
@@ -1454,28 +1454,28 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="22"/>
+      <c r="A16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="30"/>
       <c r="D16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="5"/>
@@ -1491,26 +1491,26 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="22"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="30"/>
       <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="28"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
@@ -1526,20 +1526,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="28"/>
+      <c r="A18" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1555,20 +1555,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="A19" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1584,13 +1584,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1611,19 +1611,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="28"/>
+      <c r="A21" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1638,21 +1638,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="28"/>
+      <c r="A22" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1667,21 +1667,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="28"/>
+      <c r="A23" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1696,13 +1696,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="A24" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1723,19 +1723,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="A25" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1750,19 +1750,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="A26" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1809,29 +1809,29 @@
         <v>1</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="49"/>
+        <v>63</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="29"/>
       <c r="F28" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="I28" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>5</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1850,8 +1850,8 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1872,13 +1872,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
+      <c r="A30" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1899,34 +1899,34 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="48" t="s">
+      <c r="A31" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="41" t="s">
+      <c r="G31" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>52</v>
+      <c r="H31" s="29"/>
+      <c r="I31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1942,25 +1942,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+        <v>68</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2000,19 +2000,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
+      <c r="A34" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2027,19 +2027,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
+      <c r="A35" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2054,19 +2054,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="A36" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2081,19 +2081,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
+      <c r="A37" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2129,14 +2129,14 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="D39" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="D39" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="32"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -2157,14 +2157,14 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="D40" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="D40" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
@@ -2185,14 +2185,14 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="D41" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="D41" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -2214,14 +2214,14 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
+      <c r="D42" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -3054,6 +3054,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="C6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A37:K37"/>
@@ -3070,70 +3134,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C568183-367F-4B39-9F2D-4388C854659C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C152528-0328-4486-9421-2CD3A7AA86AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,10 +307,10 @@
     <t>Наличие функции безопас-ности</t>
   </si>
   <si>
-    <t>Шум, колебатель-ный режим</t>
-  </si>
-  <si>
     <t>Качество регули-рования</t>
+  </si>
+  <si>
+    <t>Шум, колебательный режим</t>
   </si>
 </sst>
 </file>
@@ -581,6 +581,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -590,95 +629,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,17 +1037,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1057,12 +1057,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1080,16 +1080,16 @@
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1104,21 +1104,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1133,21 +1133,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1162,19 +1162,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1189,12 +1189,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1216,19 +1216,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1243,17 +1243,17 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="32"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1270,17 +1270,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="32"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1297,17 +1297,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="32"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1324,17 +1324,17 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="32"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
         <v>35</v>
@@ -1353,21 +1353,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="48" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="48" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1382,26 +1382,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1419,24 +1419,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1454,26 +1454,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1491,24 +1491,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1526,20 +1526,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="31" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1555,20 +1555,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1584,13 +1584,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1611,19 +1611,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1638,21 +1638,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="31" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1667,21 +1667,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="31" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1696,13 +1696,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1723,19 +1723,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1750,19 +1750,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1811,21 +1811,21 @@
       <c r="C28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>66</v>
@@ -1850,8 +1850,8 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1872,13 +1872,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1899,33 +1899,33 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="26" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="26" t="s">
+      <c r="H31" s="49"/>
+      <c r="I31" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="41" t="s">
         <v>50</v>
       </c>
       <c r="L31" s="2"/>
@@ -1942,25 +1942,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2000,19 +2000,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2027,19 +2027,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2054,19 +2054,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2081,19 +2081,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2129,11 +2129,11 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="32"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
         <v>36</v>
@@ -2157,11 +2157,11 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="32"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
         <v>36</v>
@@ -2185,11 +2185,11 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="32"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="s">
         <v>36</v>
@@ -2214,11 +2214,11 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
         <v>53</v>
@@ -3054,27 +3054,49 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
@@ -3091,49 +3113,27 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C152528-0328-4486-9421-2CD3A7AA86AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094B870-04D9-4E5D-8253-5268A0582C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Шум, колебательный режим</t>
+  </si>
+  <si>
+    <t>Расчетный диаметр:</t>
+  </si>
+  <si>
+    <t>Расчетная пропускная способность:</t>
   </si>
 </sst>
 </file>
@@ -581,17 +587,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -602,83 +683,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,37 +1023,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="10.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1057,12 +1064,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1080,16 +1087,16 @@
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1104,21 +1111,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1133,21 +1140,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1162,19 +1169,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1189,12 +1196,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1216,19 +1223,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1243,17 +1250,17 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -1270,17 +1277,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
@@ -1297,17 +1304,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
@@ -1324,17 +1331,17 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
         <v>35</v>
@@ -1353,21 +1360,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="23" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1382,26 +1389,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1419,24 +1426,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="28"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1454,26 +1461,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="28"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1491,24 +1498,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="28"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1526,20 +1533,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1555,20 +1562,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1584,13 +1591,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1611,19 +1618,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="28"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1638,21 +1645,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="19" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="28"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1667,21 +1674,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="19" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="28"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1696,13 +1703,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1723,19 +1730,21 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1750,19 +1759,21 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1811,10 +1822,10 @@
       <c r="C28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="17" t="s">
         <v>5</v>
       </c>
@@ -1850,8 +1861,8 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1872,13 +1883,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1899,33 +1910,33 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="41" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="41" t="s">
+      <c r="H31" s="26"/>
+      <c r="I31" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="23" t="s">
         <v>50</v>
       </c>
       <c r="L31" s="2"/>
@@ -1942,25 +1953,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2000,19 +2011,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2027,19 +2038,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2054,19 +2065,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2081,19 +2092,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2129,11 +2140,11 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
         <v>36</v>
@@ -2157,11 +2168,11 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
         <v>36</v>
@@ -2185,11 +2196,11 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="s">
         <v>36</v>
@@ -2214,11 +2225,11 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
         <v>53</v>
@@ -3053,8 +3064,75 @@
       <c r="W76" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="84">
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="C6:K6"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="J5:K5"/>
@@ -3071,69 +3149,6 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094B870-04D9-4E5D-8253-5268A0582C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3E0BB-CD95-4167-B5AD-805B8247B2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Высота H=</t>
-  </si>
-  <si>
-    <t>Расчетные потери давления на клапане ΔPкл=</t>
   </si>
   <si>
     <t>Давление перед клапаном P'=</t>
@@ -427,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -531,11 +528,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,43 +589,133 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -593,98 +724,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,17 +1112,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1064,12 +1132,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1084,19 +1152,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="35"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1111,21 +1179,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1140,21 +1208,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22" t="s">
+      <c r="A5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1169,19 +1237,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="35"/>
+      <c r="A6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1196,12 +1264,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1223,19 +1291,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1250,19 +1318,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1276,20 +1344,18 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="6"/>
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1304,19 +1370,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="6"/>
+      <c r="A11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1331,19 +1397,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13" t="s">
+      <c r="A12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="2"/>
@@ -1360,21 +1426,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="48" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1389,26 +1455,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1426,24 +1492,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1461,26 +1527,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1498,24 +1564,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1533,20 +1599,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1562,20 +1628,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27" t="s">
+      <c r="A19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1591,13 +1657,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="A20" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1618,19 +1684,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
+      <c r="A21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="29"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1645,21 +1711,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1674,21 +1740,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="29"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1703,19 +1769,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1730,21 +1796,21 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1759,21 +1825,21 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1792,13 +1858,13 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1813,35 +1879,35 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="25" t="s">
+      <c r="C28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="17" t="s">
+      <c r="E28" s="48"/>
+      <c r="F28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="17" t="s">
+      <c r="J28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L28" s="2"/>
@@ -1858,17 +1924,17 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1883,19 +1949,19 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="A30" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1910,34 +1976,34 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="25" t="s">
+      <c r="A31" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="23" t="s">
+      <c r="F31" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="G31" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>50</v>
+      <c r="H31" s="48"/>
+      <c r="I31" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1953,25 +2019,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="17" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="D32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1986,17 +2052,17 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2011,19 +2077,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
+      <c r="A34" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2038,19 +2104,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
+      <c r="A35" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2065,19 +2131,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
+      <c r="A36" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2092,19 +2158,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="A37" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2119,11 +2185,11 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2138,20 +2204,20 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="D39" s="28" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="D39" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="16" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2166,20 +2232,20 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="D40" s="28" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="D40" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="16" t="s">
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2194,20 +2260,20 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="D41" s="28" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="D41" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="16" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2222,21 +2288,21 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2251,17 +2317,17 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2276,17 +2342,17 @@
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -3064,29 +3130,55 @@
       <c r="W76" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
+  <mergeCells count="85">
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="C6:K6"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="A7:D7"/>
@@ -3103,52 +3195,27 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3E0BB-CD95-4167-B5AD-805B8247B2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28FCDF-DE7A-4332-8391-44517ADA0111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,9 +225,6 @@
     <t>Область применения:</t>
   </si>
   <si>
-    <t>Марка клапана:</t>
-  </si>
-  <si>
     <t>кг</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>Расчетная пропускная способность:</t>
+  </si>
+  <si>
+    <t>Марка клапана/эл.привода:</t>
   </si>
 </sst>
 </file>
@@ -625,23 +625,122 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,107 +751,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,17 +1112,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1132,12 +1132,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1155,16 +1155,16 @@
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="19"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1179,21 +1179,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1208,21 +1208,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1237,19 +1237,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="19"/>
+      <c r="A6" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1264,12 +1264,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1291,19 +1291,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1318,19 +1318,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="59"/>
+      <c r="A9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1345,17 +1345,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="60"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1370,17 +1370,17 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="12"/>
       <c r="K11" s="17"/>
       <c r="L11" s="2"/>
@@ -1397,17 +1397,17 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
+      <c r="A12" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="12"/>
       <c r="K12" s="11" t="s">
         <v>35</v>
@@ -1426,21 +1426,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="24" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1455,26 +1455,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="29"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1492,24 +1492,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="29"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1527,26 +1527,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="29"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1564,24 +1564,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="29"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="29"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1599,20 +1599,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="20" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1628,20 +1628,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23" t="s">
+      <c r="A19" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1657,13 +1657,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1684,19 +1684,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="29"/>
+      <c r="A21" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1711,21 +1711,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1740,21 +1740,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="29"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1769,13 +1769,13 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -1796,21 +1796,21 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1825,21 +1825,21 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1886,26 +1886,26 @@
         <v>1</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>3</v>
@@ -1927,8 +1927,8 @@
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -1949,13 +1949,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -1976,33 +1976,33 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="47" t="s">
+      <c r="A31" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="40" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="40" t="s">
+      <c r="H31" s="35"/>
+      <c r="I31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="32" t="s">
         <v>49</v>
       </c>
       <c r="L31" s="2"/>
@@ -2019,25 +2019,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+        <v>54</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
+        <v>66</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2077,19 +2077,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
+      <c r="A34" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2104,19 +2104,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
+      <c r="A35" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2131,19 +2131,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
+      <c r="A36" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2158,19 +2158,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
+      <c r="A37" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2206,11 +2206,11 @@
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="16"/>
       <c r="H39" s="14" t="s">
         <v>36</v>
@@ -2234,11 +2234,11 @@
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="16"/>
       <c r="H40" s="14" t="s">
         <v>36</v>
@@ -2262,11 +2262,11 @@
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="16"/>
       <c r="H41" s="14" t="s">
         <v>36</v>
@@ -2291,14 +2291,14 @@
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
+      <c r="D42" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
       <c r="G42" s="16"/>
       <c r="H42" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -3131,6 +3131,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="A9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
@@ -3147,75 +3216,6 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRV.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28FCDF-DE7A-4332-8391-44517ADA0111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534049D-B1CC-4712-A875-0A475055F18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -586,13 +586,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -605,65 +605,50 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -688,18 +673,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -709,7 +694,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,55 +758,56 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>615312</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>20359</xdr:rowOff>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>787541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+        <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0644D25-EC60-4F63-829A-ED26C8E5F481}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC50F114-DE5B-4B00-BC77-8CCFB77BFDF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect l="1996" t="12024" r="2202"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6624000" cy="814109"/>
+          <a:off x="1" y="0"/>
+          <a:ext cx="7067550" cy="787541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1091,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,17 +1098,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1132,12 +1118,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1155,16 +1141,16 @@
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="44"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1179,21 +1165,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1208,21 +1194,21 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1237,19 +1223,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="44"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1264,12 +1250,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1291,19 +1277,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1318,19 +1304,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="26"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1345,17 +1331,17 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="27"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1370,19 +1356,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="17"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1397,19 +1383,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="2"/>
@@ -1426,21 +1412,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="57" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="57" t="s">
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1455,26 +1441,26 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1492,24 +1478,24 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1527,26 +1513,26 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1564,24 +1550,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1599,20 +1585,20 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="37" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
@@ -1628,20 +1614,20 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1657,13 +1643,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1684,19 +1670,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1711,21 +1697,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="37" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1740,21 +1726,21 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="37" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1769,19 +1755,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1796,21 +1782,21 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="37" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="44"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1825,21 +1811,21 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="37" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1858,13 +1844,13 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1878,36 +1864,36 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="15" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="12" t="s">
         <v>3</v>
       </c>
       <c r="L28" s="2"/>
@@ -1924,17 +1910,17 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1949,13 +1935,13 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -1976,33 +1962,33 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="32" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="32" t="s">
+      <c r="H31" s="30"/>
+      <c r="I31" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="27" t="s">
         <v>49</v>
       </c>
       <c r="L31" s="2"/>
@@ -2019,25 +2005,25 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="15" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2052,17 +2038,17 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2077,19 +2063,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2104,19 +2090,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2131,19 +2117,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2158,19 +2144,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2185,11 +2171,11 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2204,20 +2190,20 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="D39" s="37" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="14" t="s">
+      <c r="E39" s="35"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2232,20 +2218,20 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="D40" s="37" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="14" t="s">
+      <c r="E40" s="35"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2260,20 +2246,20 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="D41" s="37" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="14" t="s">
+      <c r="E41" s="35"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2288,21 +2274,21 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="14" t="s">
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2317,17 +2303,17 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2342,17 +2328,17 @@
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -3145,6 +3131,10 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -3184,10 +3174,6 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
